--- a/finalp/src/main/webapp/resources/db/MEMBER.xlsx
+++ b/finalp/src/main/webapp/resources/db/MEMBER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">MEMBER_ID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROFILE_IMG_RENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST_LOGIN_DATE</t>
   </si>
   <si>
     <t xml:space="preserve">admin</t>
@@ -100,11 +103,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -186,7 +188,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,10 +202,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,26 +223,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1737089201878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0281690140845"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2769953051643"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34272300469484"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4131455399061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.7089201877934"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2676056338028"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1549295774648"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3896713615023"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2863849765258"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6056338028169"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.8638497652582"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,67 +288,70 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>43169</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -357,7 +361,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -372,15 +376,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.62"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -395,15 +402,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.62"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/finalp/src/main/webapp/resources/db/MEMBER.xlsx
+++ b/finalp/src/main/webapp/resources/db/MEMBER.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>MEMBER_ID</t>
   </si>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>ADDRESS_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@cornsalad.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,11 +601,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/finalp/src/main/webapp/resources/db/MEMBER.xlsx
+++ b/finalp/src/main/webapp/resources/db/MEMBER.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="140">
   <si>
     <t>MEMBER_ID</t>
   </si>
@@ -442,6 +442,14 @@
   </si>
   <si>
     <t>98F6BCD4621D373CADE4E832627B4F6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerjieun6@cornsalad.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerjieun8@cornsalad.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +528,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +817,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1126,8 +1137,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
+      <c r="A11" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>134</v>
@@ -1184,8 +1195,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
+      <c r="A13" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>134</v>
@@ -1993,9 +2004,11 @@
     <hyperlink ref="A43" r:id="rId28"/>
     <hyperlink ref="A44" r:id="rId29"/>
     <hyperlink ref="A45" r:id="rId30"/>
+    <hyperlink ref="A11" r:id="rId31"/>
+    <hyperlink ref="A13" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId31"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId33"/>
 </worksheet>
 </file>
 
